--- a/xlsx/比萨饼_intext.xlsx
+++ b/xlsx/比萨饼_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%8F%9C</t>
   </si>
   <si>
-    <t>義大利菜</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_比萨饼</t>
+    <t>义大利菜</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_比萨饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
@@ -41,37 +41,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>中世紀飲食文化</t>
+    <t>中世纪饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>義大利飲食文化</t>
+    <t>义大利饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%BC%8F%E9%BA%B5%E9%A3%9F</t>
   </si>
   <si>
-    <t>意式麵食</t>
+    <t>意式面食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%9B%B4%E9%BA%B5</t>
   </si>
   <si>
-    <t>義大利直麵</t>
+    <t>义大利直面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%BF%83%E9%BA%B5</t>
   </si>
   <si>
-    <t>通心麵</t>
+    <t>通心面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E8%80%B3%E6%9C%B5_(%E6%84%8F%E5%A4%A7%E5%88%A9)</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E9%A4%83</t>
   </si>
   <si>
-    <t>意大利餃</t>
+    <t>意大利饺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B%E9%BA%B5</t>
   </si>
   <si>
-    <t>螺旋麵</t>
+    <t>螺旋面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E5%B1%A4%E9%BA%B5</t>
   </si>
   <si>
-    <t>千層麵</t>
+    <t>千层面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%85%B1</t>
@@ -119,31 +119,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AB%E8%96%A9</t>
   </si>
   <si>
-    <t>披薩</t>
+    <t>披萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%BC%8F%E8%82%89%E8%85%B8</t>
   </si>
   <si>
-    <t>意式肉腸</t>
+    <t>意式肉肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%8B%89%E7%B1%B3%E8%98%87</t>
   </si>
   <si>
-    <t>提拉米蘇</t>
+    <t>提拉米苏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>意大利麵包</t>
+    <t>意大利面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BB%83%E9%87%91%E9%BA%B5%E5%8C%85</t>
   </si>
   <si>
-    <t>義大利黃金麵包</t>
+    <t>义大利黄金面包</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%91%A1%E8%90%84%E9%85%92</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%B7%B4%E7%AC%AC_(%E8%91%A1%E8%90%84%E9%85%92)</t>
   </si>
   <si>
-    <t>倫巴第 (葡萄酒)</t>
+    <t>伦巴第 (葡萄酒)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%83%E7%B8%AE%E5%92%96%E5%95%A1</t>
   </si>
   <si>
-    <t>濃縮咖啡</t>
+    <t>浓缩咖啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B8%83%E5%A5%87%E8%AF%BA</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%B3%96%E7%91%AA%E5%A5%87%E6%9C%B5</t>
   </si>
   <si>
-    <t>焦糖瑪奇朵</t>
+    <t>焦糖玛奇朵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%91%9E%E6%89%98%E5%92%96%E5%95%A1</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>意大利語</t>
+    <t>意大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E8%8C%84</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%85%AA</t>
   </si>
   <si>
-    <t>乾酪</t>
+    <t>干酪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%AA%E8%8C%84%E9%86%AC</t>
   </si>
   <si>
-    <t>番茄醬</t>
+    <t>番茄酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E9%85%AA</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%A4%E7%88%90</t>
   </si>
   <si>
-    <t>烤爐</t>
+    <t>烤炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%96%A9%E9%87%8C%E6%8B%89%E4%B9%BE%E9%85%AA</t>
   </si>
   <si>
-    <t>莫薩里拉乾酪</t>
+    <t>莫萨里拉干酪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%A6%AC%E6%A3%AE%E4%B9%BE%E9%85%AA</t>
   </si>
   <si>
-    <t>帕馬森乾酪</t>
+    <t>帕马森干酪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E6%A8%82%E6%8A%AB%E8%96%A9</t>
   </si>
   <si>
-    <t>達美樂披薩</t>
+    <t>达美乐披萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%96%A9%E9%A4%85%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>比薩餅歷史</t>
+    <t>比萨饼历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>維吉爾</t>
+    <t>维吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B6%85%E9%98%BF%E6%96%AF%E7%BA%AA</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E6%B2%B9</t>
   </si>
   <si>
-    <t>橄欖油</t>
+    <t>橄榄油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%96%99</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勒</t>
+    <t>罗勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%8B%8F%E9%87%8C%E6%8B%89%E5%A5%B6%E9%85%AA</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E5%9D%A1%E9%87%8C%E6%8A%AB%E8%96%A9</t>
   </si>
   <si>
-    <t>拿坡里披薩</t>
+    <t>拿坡里披萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%80%81</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%96%AE%E8%BB%8A</t>
   </si>
   <si>
-    <t>電單車</t>
+    <t>电单车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
